--- a/miniproject/template/Lectures/Lecture 7.xlsx
+++ b/miniproject/template/Lectures/Lecture 7.xlsx
@@ -37,41 +37,22 @@
     <t>Example</t>
   </si>
   <si>
+    <t>Meaning</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Meaning </t>
+      <t>Meaning</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
       </rPr>
-      <t>（</t>
+      <t>（中文）</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>English</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <t>Meaning</t>
   </si>
   <si>
     <t>level_2</t>
@@ -4497,11 +4478,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4521,6 +4502,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -4533,19 +4521,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Times New Roman"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4555,11 +4540,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4570,11 +4562,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4600,6 +4592,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -4608,16 +4608,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4631,31 +4624,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4669,7 +4639,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4684,27 +4669,21 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="方正书宋_GBK"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4725,13 +4704,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4749,7 +4800,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4761,61 +4842,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4827,37 +4860,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4875,43 +4890,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4970,7 +4955,70 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4992,54 +5040,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -5048,166 +5048,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5231,31 +5216,31 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5582,8 +5567,8 @@
   <sheetPr/>
   <dimension ref="A1:Z221"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:X1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -5635,46 +5620,46 @@
       <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="11" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="13" t="s">
@@ -5686,10 +5671,10 @@
       <c r="X1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="Z1" s="11" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5707,7 +5692,7 @@
         <v>28</v>
       </c>
       <c r="E2" s="7"/>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>29</v>
       </c>
       <c r="G2" s="7" t="s">
@@ -5797,7 +5782,7 @@
         <v>28</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>33</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -5887,7 +5872,7 @@
         <v>37</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>38</v>
       </c>
       <c r="G4" s="7" t="s">
@@ -5977,7 +5962,7 @@
         <v>42</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>43</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -6067,7 +6052,7 @@
         <v>47</v>
       </c>
       <c r="E6" s="7"/>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="10" t="s">
         <v>48</v>
       </c>
       <c r="G6" s="7" t="s">
@@ -6157,7 +6142,7 @@
         <v>47</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="10" t="s">
         <v>52</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -6247,7 +6232,7 @@
         <v>47</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G8" s="7" t="s">
@@ -6337,7 +6322,7 @@
         <v>60</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>61</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -6427,7 +6412,7 @@
         <v>60</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="10" t="s">
         <v>65</v>
       </c>
       <c r="G10" s="7" t="s">
@@ -6517,7 +6502,7 @@
         <v>69</v>
       </c>
       <c r="E11" s="6"/>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="10" t="s">
         <v>70</v>
       </c>
       <c r="G11" s="6" t="s">
@@ -6607,7 +6592,7 @@
         <v>69</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="10" t="s">
         <v>74</v>
       </c>
       <c r="G12" s="7" t="s">
@@ -6697,7 +6682,7 @@
         <v>69</v>
       </c>
       <c r="E13" s="6"/>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="10" t="s">
         <v>78</v>
       </c>
       <c r="G13" s="6" t="s">
@@ -6787,7 +6772,7 @@
         <v>69</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="10" t="s">
         <v>82</v>
       </c>
       <c r="G14" s="7" t="s">
@@ -6877,7 +6862,7 @@
         <v>69</v>
       </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="10" t="s">
         <v>86</v>
       </c>
       <c r="G15" s="6" t="s">
@@ -6967,7 +6952,7 @@
         <v>69</v>
       </c>
       <c r="E16" s="7"/>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="10" t="s">
         <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
@@ -7057,7 +7042,7 @@
         <v>69</v>
       </c>
       <c r="E17" s="6"/>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="10" t="s">
         <v>94</v>
       </c>
       <c r="G17" s="6" t="s">
@@ -7147,7 +7132,7 @@
         <v>98</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="10" t="s">
         <v>99</v>
       </c>
       <c r="G18" s="7" t="s">
@@ -7237,7 +7222,7 @@
         <v>98</v>
       </c>
       <c r="E19" s="6"/>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="10" t="s">
         <v>103</v>
       </c>
       <c r="G19" s="6" t="s">
@@ -7327,7 +7312,7 @@
         <v>98</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="10" t="s">
         <v>107</v>
       </c>
       <c r="G20" s="7" t="s">
@@ -7417,7 +7402,7 @@
         <v>98</v>
       </c>
       <c r="E21" s="6"/>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="10" t="s">
         <v>111</v>
       </c>
       <c r="G21" s="6" t="s">
@@ -7507,7 +7492,7 @@
         <v>115</v>
       </c>
       <c r="E22" s="7"/>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="10" t="s">
         <v>116</v>
       </c>
       <c r="G22" s="7" t="s">
@@ -7597,7 +7582,7 @@
         <v>115</v>
       </c>
       <c r="E23" s="6"/>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="10" t="s">
         <v>120</v>
       </c>
       <c r="G23" s="6" t="s">
@@ -7687,7 +7672,7 @@
         <v>115</v>
       </c>
       <c r="E24" s="7"/>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="10" t="s">
         <v>124</v>
       </c>
       <c r="G24" s="7" t="s">
@@ -7777,7 +7762,7 @@
         <v>115</v>
       </c>
       <c r="E25" s="6"/>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="10" t="s">
         <v>128</v>
       </c>
       <c r="G25" s="6" t="s">
@@ -7867,7 +7852,7 @@
         <v>115</v>
       </c>
       <c r="E26" s="7"/>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="10" t="s">
         <v>132</v>
       </c>
       <c r="G26" s="7" t="s">
@@ -7957,7 +7942,7 @@
         <v>136</v>
       </c>
       <c r="E27" s="6"/>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="10" t="s">
         <v>137</v>
       </c>
       <c r="G27" s="6" t="s">
@@ -8047,7 +8032,7 @@
         <v>136</v>
       </c>
       <c r="E28" s="7"/>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="10" t="s">
         <v>141</v>
       </c>
       <c r="G28" s="7" t="s">
@@ -8137,7 +8122,7 @@
         <v>136</v>
       </c>
       <c r="E29" s="6"/>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="10" t="s">
         <v>145</v>
       </c>
       <c r="G29" s="6" t="s">
@@ -8227,7 +8212,7 @@
         <v>136</v>
       </c>
       <c r="E30" s="7"/>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="10" t="s">
         <v>149</v>
       </c>
       <c r="G30" s="7" t="s">
@@ -8236,7 +8221,7 @@
       <c r="H30" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="I30" s="11" t="s">
+      <c r="I30" s="12" t="s">
         <v>152</v>
       </c>
       <c r="J30" s="4">
@@ -8317,7 +8302,7 @@
         <v>136</v>
       </c>
       <c r="E31" s="6"/>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="10" t="s">
         <v>153</v>
       </c>
       <c r="G31" s="6" t="s">
@@ -8407,7 +8392,7 @@
         <v>157</v>
       </c>
       <c r="E32" s="7"/>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="10" t="s">
         <v>158</v>
       </c>
       <c r="G32" s="7" t="s">
@@ -8497,7 +8482,7 @@
         <v>157</v>
       </c>
       <c r="E33" s="6"/>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="10" t="s">
         <v>162</v>
       </c>
       <c r="G33" s="6" t="s">
@@ -8587,7 +8572,7 @@
         <v>166</v>
       </c>
       <c r="E34" s="7"/>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="10" t="s">
         <v>167</v>
       </c>
       <c r="G34" s="7" t="s">
@@ -8677,7 +8662,7 @@
         <v>166</v>
       </c>
       <c r="E35" s="6"/>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="10" t="s">
         <v>171</v>
       </c>
       <c r="G35" s="6" t="s">
@@ -8767,7 +8752,7 @@
         <v>166</v>
       </c>
       <c r="E36" s="7"/>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="10" t="s">
         <v>175</v>
       </c>
       <c r="G36" s="7" t="s">
@@ -8857,7 +8842,7 @@
         <v>166</v>
       </c>
       <c r="E37" s="6"/>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="10" t="s">
         <v>179</v>
       </c>
       <c r="G37" s="6" t="s">
@@ -8947,7 +8932,7 @@
         <v>166</v>
       </c>
       <c r="E38" s="7"/>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="10" t="s">
         <v>183</v>
       </c>
       <c r="G38" s="7" t="s">
@@ -9037,7 +9022,7 @@
         <v>166</v>
       </c>
       <c r="E39" s="6"/>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="10" t="s">
         <v>187</v>
       </c>
       <c r="G39" s="6" t="s">
@@ -9127,7 +9112,7 @@
         <v>166</v>
       </c>
       <c r="E40" s="7"/>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="10" t="s">
         <v>191</v>
       </c>
       <c r="G40" s="7" t="s">
@@ -9217,7 +9202,7 @@
         <v>166</v>
       </c>
       <c r="E41" s="6"/>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="10" t="s">
         <v>195</v>
       </c>
       <c r="G41" s="6" t="s">
@@ -9307,7 +9292,7 @@
         <v>166</v>
       </c>
       <c r="E42" s="7"/>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="10" t="s">
         <v>199</v>
       </c>
       <c r="G42" s="7" t="s">
@@ -9397,7 +9382,7 @@
         <v>203</v>
       </c>
       <c r="E43" s="6"/>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="10" t="s">
         <v>204</v>
       </c>
       <c r="G43" s="6" t="s">
@@ -9487,7 +9472,7 @@
         <v>203</v>
       </c>
       <c r="E44" s="7"/>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="10" t="s">
         <v>208</v>
       </c>
       <c r="G44" s="7" t="s">
@@ -9577,7 +9562,7 @@
         <v>203</v>
       </c>
       <c r="E45" s="6"/>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="10" t="s">
         <v>212</v>
       </c>
       <c r="G45" s="6" t="s">
@@ -9667,7 +9652,7 @@
         <v>203</v>
       </c>
       <c r="E46" s="7"/>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="10" t="s">
         <v>216</v>
       </c>
       <c r="G46" s="7" t="s">
@@ -9757,7 +9742,7 @@
         <v>203</v>
       </c>
       <c r="E47" s="6"/>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="10" t="s">
         <v>220</v>
       </c>
       <c r="G47" s="6" t="s">
@@ -9847,7 +9832,7 @@
         <v>203</v>
       </c>
       <c r="E48" s="7"/>
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="10" t="s">
         <v>224</v>
       </c>
       <c r="G48" s="7" t="s">
@@ -9937,7 +9922,7 @@
         <v>203</v>
       </c>
       <c r="E49" s="6"/>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="10" t="s">
         <v>228</v>
       </c>
       <c r="G49" s="6" t="s">
@@ -10027,7 +10012,7 @@
         <v>232</v>
       </c>
       <c r="E50" s="7"/>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="10" t="s">
         <v>233</v>
       </c>
       <c r="G50" s="7" t="s">
@@ -10117,7 +10102,7 @@
         <v>232</v>
       </c>
       <c r="E51" s="6"/>
-      <c r="F51" s="9" t="s">
+      <c r="F51" s="10" t="s">
         <v>237</v>
       </c>
       <c r="G51" s="6" t="s">
@@ -10207,7 +10192,7 @@
         <v>232</v>
       </c>
       <c r="E52" s="7"/>
-      <c r="F52" s="9" t="s">
+      <c r="F52" s="10" t="s">
         <v>241</v>
       </c>
       <c r="G52" s="7" t="s">
@@ -10297,7 +10282,7 @@
         <v>245</v>
       </c>
       <c r="E53" s="6"/>
-      <c r="F53" s="9" t="s">
+      <c r="F53" s="10" t="s">
         <v>246</v>
       </c>
       <c r="G53" s="6" t="s">
@@ -10387,7 +10372,7 @@
         <v>245</v>
       </c>
       <c r="E54" s="7"/>
-      <c r="F54" s="9" t="s">
+      <c r="F54" s="10" t="s">
         <v>250</v>
       </c>
       <c r="G54" s="7" t="s">
@@ -10477,7 +10462,7 @@
         <v>245</v>
       </c>
       <c r="E55" s="6"/>
-      <c r="F55" s="9" t="s">
+      <c r="F55" s="10" t="s">
         <v>254</v>
       </c>
       <c r="G55" s="6" t="s">
@@ -10567,7 +10552,7 @@
         <v>258</v>
       </c>
       <c r="E56" s="7"/>
-      <c r="F56" s="9" t="s">
+      <c r="F56" s="10" t="s">
         <v>259</v>
       </c>
       <c r="G56" s="7" t="s">
@@ -10576,7 +10561,7 @@
       <c r="H56" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="I56" s="12" t="s">
+      <c r="I56" s="7" t="s">
         <v>262</v>
       </c>
       <c r="J56" s="4">
@@ -10657,7 +10642,7 @@
         <v>263</v>
       </c>
       <c r="E57" s="6"/>
-      <c r="F57" s="9" t="s">
+      <c r="F57" s="10" t="s">
         <v>264</v>
       </c>
       <c r="G57" s="6" t="s">
@@ -10747,7 +10732,7 @@
         <v>268</v>
       </c>
       <c r="E58" s="7"/>
-      <c r="F58" s="9" t="s">
+      <c r="F58" s="10" t="s">
         <v>269</v>
       </c>
       <c r="G58" s="7" t="s">
@@ -10837,7 +10822,7 @@
         <v>268</v>
       </c>
       <c r="E59" s="6"/>
-      <c r="F59" s="9" t="s">
+      <c r="F59" s="10" t="s">
         <v>273</v>
       </c>
       <c r="G59" s="6" t="s">
@@ -10927,7 +10912,7 @@
         <v>277</v>
       </c>
       <c r="E60" s="7"/>
-      <c r="F60" s="9" t="s">
+      <c r="F60" s="10" t="s">
         <v>278</v>
       </c>
       <c r="G60" s="7" t="s">
@@ -11017,7 +11002,7 @@
         <v>277</v>
       </c>
       <c r="E61" s="6"/>
-      <c r="F61" s="9" t="s">
+      <c r="F61" s="10" t="s">
         <v>282</v>
       </c>
       <c r="G61" s="6" t="s">
@@ -11107,7 +11092,7 @@
         <v>277</v>
       </c>
       <c r="E62" s="7"/>
-      <c r="F62" s="9" t="s">
+      <c r="F62" s="10" t="s">
         <v>286</v>
       </c>
       <c r="G62" s="7" t="s">
@@ -11197,7 +11182,7 @@
         <v>290</v>
       </c>
       <c r="E63" s="6"/>
-      <c r="F63" s="9" t="s">
+      <c r="F63" s="10" t="s">
         <v>291</v>
       </c>
       <c r="G63" s="6" t="s">
@@ -11287,7 +11272,7 @@
         <v>295</v>
       </c>
       <c r="E64" s="7"/>
-      <c r="F64" s="9" t="s">
+      <c r="F64" s="10" t="s">
         <v>296</v>
       </c>
       <c r="G64" s="7" t="s">
@@ -11377,7 +11362,7 @@
         <v>300</v>
       </c>
       <c r="E65" s="6"/>
-      <c r="F65" s="9" t="s">
+      <c r="F65" s="10" t="s">
         <v>301</v>
       </c>
       <c r="G65" s="6" t="s">
@@ -11467,7 +11452,7 @@
         <v>305</v>
       </c>
       <c r="E66" s="7"/>
-      <c r="F66" s="9" t="s">
+      <c r="F66" s="10" t="s">
         <v>306</v>
       </c>
       <c r="G66" s="7" t="s">
@@ -11557,7 +11542,7 @@
         <v>305</v>
       </c>
       <c r="E67" s="6"/>
-      <c r="F67" s="9" t="s">
+      <c r="F67" s="10" t="s">
         <v>310</v>
       </c>
       <c r="G67" s="6" t="s">
@@ -11647,7 +11632,7 @@
         <v>305</v>
       </c>
       <c r="E68" s="7"/>
-      <c r="F68" s="9" t="s">
+      <c r="F68" s="10" t="s">
         <v>314</v>
       </c>
       <c r="G68" s="7" t="s">
@@ -11737,7 +11722,7 @@
         <v>305</v>
       </c>
       <c r="E69" s="6"/>
-      <c r="F69" s="9" t="s">
+      <c r="F69" s="10" t="s">
         <v>318</v>
       </c>
       <c r="G69" s="6" t="s">
@@ -11827,7 +11812,7 @@
         <v>305</v>
       </c>
       <c r="E70" s="7"/>
-      <c r="F70" s="9" t="s">
+      <c r="F70" s="10" t="s">
         <v>322</v>
       </c>
       <c r="G70" s="7" t="s">
@@ -11917,7 +11902,7 @@
         <v>326</v>
       </c>
       <c r="E71" s="6"/>
-      <c r="F71" s="9" t="s">
+      <c r="F71" s="10" t="s">
         <v>327</v>
       </c>
       <c r="G71" s="6" t="s">
@@ -12007,7 +11992,7 @@
         <v>326</v>
       </c>
       <c r="E72" s="7"/>
-      <c r="F72" s="9" t="s">
+      <c r="F72" s="10" t="s">
         <v>331</v>
       </c>
       <c r="G72" s="7" t="s">
@@ -12016,7 +12001,7 @@
       <c r="H72" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="I72" s="11" t="s">
+      <c r="I72" s="12" t="s">
         <v>334</v>
       </c>
       <c r="J72" s="4">
@@ -12097,7 +12082,7 @@
         <v>326</v>
       </c>
       <c r="E73" s="6"/>
-      <c r="F73" s="9" t="s">
+      <c r="F73" s="10" t="s">
         <v>335</v>
       </c>
       <c r="G73" s="6" t="s">
@@ -12187,7 +12172,7 @@
         <v>326</v>
       </c>
       <c r="E74" s="7"/>
-      <c r="F74" s="9" t="s">
+      <c r="F74" s="10" t="s">
         <v>339</v>
       </c>
       <c r="G74" s="7" t="s">
@@ -12277,7 +12262,7 @@
         <v>326</v>
       </c>
       <c r="E75" s="6"/>
-      <c r="F75" s="9" t="s">
+      <c r="F75" s="10" t="s">
         <v>343</v>
       </c>
       <c r="G75" s="6" t="s">
@@ -12367,7 +12352,7 @@
         <v>326</v>
       </c>
       <c r="E76" s="7"/>
-      <c r="F76" s="9" t="s">
+      <c r="F76" s="10" t="s">
         <v>347</v>
       </c>
       <c r="G76" s="7" t="s">
@@ -12457,7 +12442,7 @@
         <v>351</v>
       </c>
       <c r="E77" s="6"/>
-      <c r="F77" s="9" t="s">
+      <c r="F77" s="10" t="s">
         <v>352</v>
       </c>
       <c r="G77" s="6" t="s">
@@ -12547,7 +12532,7 @@
         <v>356</v>
       </c>
       <c r="E78" s="7"/>
-      <c r="F78" s="9" t="s">
+      <c r="F78" s="10" t="s">
         <v>357</v>
       </c>
       <c r="G78" s="7" t="s">
@@ -12637,7 +12622,7 @@
         <v>361</v>
       </c>
       <c r="E79" s="6"/>
-      <c r="F79" s="9" t="s">
+      <c r="F79" s="10" t="s">
         <v>362</v>
       </c>
       <c r="G79" s="6" t="s">
@@ -12727,7 +12712,7 @@
         <v>361</v>
       </c>
       <c r="E80" s="7"/>
-      <c r="F80" s="9" t="s">
+      <c r="F80" s="10" t="s">
         <v>366</v>
       </c>
       <c r="G80" s="7" t="s">
@@ -12817,7 +12802,7 @@
         <v>361</v>
       </c>
       <c r="E81" s="6"/>
-      <c r="F81" s="9" t="s">
+      <c r="F81" s="10" t="s">
         <v>370</v>
       </c>
       <c r="G81" s="6" t="s">
@@ -12907,7 +12892,7 @@
         <v>361</v>
       </c>
       <c r="E82" s="7"/>
-      <c r="F82" s="9" t="s">
+      <c r="F82" s="10" t="s">
         <v>374</v>
       </c>
       <c r="G82" s="7" t="s">
@@ -12997,7 +12982,7 @@
         <v>361</v>
       </c>
       <c r="E83" s="6"/>
-      <c r="F83" s="9" t="s">
+      <c r="F83" s="10" t="s">
         <v>378</v>
       </c>
       <c r="G83" s="6" t="s">
@@ -13087,7 +13072,7 @@
         <v>361</v>
       </c>
       <c r="E84" s="7"/>
-      <c r="F84" s="9" t="s">
+      <c r="F84" s="10" t="s">
         <v>382</v>
       </c>
       <c r="G84" s="7" t="s">
@@ -13177,7 +13162,7 @@
         <v>361</v>
       </c>
       <c r="E85" s="6"/>
-      <c r="F85" s="9" t="s">
+      <c r="F85" s="10" t="s">
         <v>386</v>
       </c>
       <c r="G85" s="6" t="s">
@@ -13267,7 +13252,7 @@
         <v>390</v>
       </c>
       <c r="E86" s="7"/>
-      <c r="F86" s="9" t="s">
+      <c r="F86" s="10" t="s">
         <v>391</v>
       </c>
       <c r="G86" s="7" t="s">
@@ -13357,7 +13342,7 @@
         <v>390</v>
       </c>
       <c r="E87" s="6"/>
-      <c r="F87" s="9" t="s">
+      <c r="F87" s="10" t="s">
         <v>395</v>
       </c>
       <c r="G87" s="6" t="s">
@@ -13447,7 +13432,7 @@
         <v>390</v>
       </c>
       <c r="E88" s="7"/>
-      <c r="F88" s="9" t="s">
+      <c r="F88" s="10" t="s">
         <v>399</v>
       </c>
       <c r="G88" s="7" t="s">
@@ -13537,7 +13522,7 @@
         <v>403</v>
       </c>
       <c r="E89" s="6"/>
-      <c r="F89" s="9" t="s">
+      <c r="F89" s="10" t="s">
         <v>404</v>
       </c>
       <c r="G89" s="6" t="s">
@@ -13627,7 +13612,7 @@
         <v>403</v>
       </c>
       <c r="E90" s="7"/>
-      <c r="F90" s="9" t="s">
+      <c r="F90" s="10" t="s">
         <v>408</v>
       </c>
       <c r="G90" s="7" t="s">
@@ -13717,7 +13702,7 @@
         <v>403</v>
       </c>
       <c r="E91" s="6"/>
-      <c r="F91" s="9" t="s">
+      <c r="F91" s="10" t="s">
         <v>412</v>
       </c>
       <c r="G91" s="6" t="s">
@@ -13807,7 +13792,7 @@
         <v>403</v>
       </c>
       <c r="E92" s="7"/>
-      <c r="F92" s="9" t="s">
+      <c r="F92" s="10" t="s">
         <v>416</v>
       </c>
       <c r="G92" s="7" t="s">
@@ -13897,7 +13882,7 @@
         <v>420</v>
       </c>
       <c r="E93" s="6"/>
-      <c r="F93" s="9" t="s">
+      <c r="F93" s="10" t="s">
         <v>421</v>
       </c>
       <c r="G93" s="6" t="s">
@@ -13987,7 +13972,7 @@
         <v>420</v>
       </c>
       <c r="E94" s="7"/>
-      <c r="F94" s="9" t="s">
+      <c r="F94" s="10" t="s">
         <v>425</v>
       </c>
       <c r="G94" s="7" t="s">
@@ -13996,7 +13981,7 @@
       <c r="H94" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="I94" s="11" t="s">
+      <c r="I94" s="12" t="s">
         <v>428</v>
       </c>
       <c r="J94" s="4">
@@ -14077,7 +14062,7 @@
         <v>429</v>
       </c>
       <c r="E95" s="6"/>
-      <c r="F95" s="9" t="s">
+      <c r="F95" s="10" t="s">
         <v>430</v>
       </c>
       <c r="G95" s="6" t="s">
@@ -14167,7 +14152,7 @@
         <v>434</v>
       </c>
       <c r="E96" s="7"/>
-      <c r="F96" s="9" t="s">
+      <c r="F96" s="10" t="s">
         <v>435</v>
       </c>
       <c r="G96" s="7" t="s">
@@ -14257,7 +14242,7 @@
         <v>434</v>
       </c>
       <c r="E97" s="6"/>
-      <c r="F97" s="9" t="s">
+      <c r="F97" s="10" t="s">
         <v>439</v>
       </c>
       <c r="G97" s="6" t="s">
@@ -14347,7 +14332,7 @@
         <v>434</v>
       </c>
       <c r="E98" s="7"/>
-      <c r="F98" s="9" t="s">
+      <c r="F98" s="10" t="s">
         <v>443</v>
       </c>
       <c r="G98" s="7" t="s">
@@ -14437,7 +14422,7 @@
         <v>447</v>
       </c>
       <c r="E99" s="6"/>
-      <c r="F99" s="9" t="s">
+      <c r="F99" s="10" t="s">
         <v>448</v>
       </c>
       <c r="G99" s="6" t="s">
@@ -14527,7 +14512,7 @@
         <v>447</v>
       </c>
       <c r="E100" s="7"/>
-      <c r="F100" s="9" t="s">
+      <c r="F100" s="10" t="s">
         <v>452</v>
       </c>
       <c r="G100" s="7" t="s">
@@ -14617,7 +14602,7 @@
         <v>447</v>
       </c>
       <c r="E101" s="6"/>
-      <c r="F101" s="9" t="s">
+      <c r="F101" s="10" t="s">
         <v>456</v>
       </c>
       <c r="G101" s="6" t="s">
@@ -14707,7 +14692,7 @@
         <v>460</v>
       </c>
       <c r="E102" s="7"/>
-      <c r="F102" s="9" t="s">
+      <c r="F102" s="10" t="s">
         <v>461</v>
       </c>
       <c r="G102" s="7" t="s">
@@ -14795,7 +14780,7 @@
       </c>
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
-      <c r="F103" s="9" t="s">
+      <c r="F103" s="10" t="s">
         <v>465</v>
       </c>
       <c r="G103" s="6" t="s">
@@ -14883,7 +14868,7 @@
       </c>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
-      <c r="F104" s="9" t="s">
+      <c r="F104" s="10" t="s">
         <v>469</v>
       </c>
       <c r="G104" s="7" t="s">
@@ -14971,7 +14956,7 @@
       </c>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
-      <c r="F105" s="9" t="s">
+      <c r="F105" s="10" t="s">
         <v>473</v>
       </c>
       <c r="G105" s="6" t="s">
@@ -15059,7 +15044,7 @@
       </c>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
-      <c r="F106" s="9" t="s">
+      <c r="F106" s="10" t="s">
         <v>477</v>
       </c>
       <c r="G106" s="7" t="s">
@@ -15147,7 +15132,7 @@
       </c>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
-      <c r="F107" s="9" t="s">
+      <c r="F107" s="10" t="s">
         <v>481</v>
       </c>
       <c r="G107" s="6" t="s">
@@ -15235,7 +15220,7 @@
       </c>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
-      <c r="F108" s="9" t="s">
+      <c r="F108" s="10" t="s">
         <v>485</v>
       </c>
       <c r="G108" s="7" t="s">
@@ -15323,7 +15308,7 @@
       </c>
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
-      <c r="F109" s="9" t="s">
+      <c r="F109" s="10" t="s">
         <v>489</v>
       </c>
       <c r="G109" s="6" t="s">
@@ -15411,7 +15396,7 @@
       </c>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
-      <c r="F110" s="9" t="s">
+      <c r="F110" s="10" t="s">
         <v>493</v>
       </c>
       <c r="G110" s="7" t="s">
@@ -18104,7 +18089,7 @@
       <c r="H140" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="I140" s="11" t="s">
+      <c r="I140" s="12" t="s">
         <v>622</v>
       </c>
       <c r="J140" s="4">
@@ -18824,7 +18809,7 @@
       <c r="H148" s="7" t="s">
         <v>653</v>
       </c>
-      <c r="I148" s="11" t="s">
+      <c r="I148" s="12" t="s">
         <v>654</v>
       </c>
       <c r="J148" s="4">
@@ -20804,7 +20789,7 @@
       <c r="H170" s="7" t="s">
         <v>743</v>
       </c>
-      <c r="I170" s="11" t="s">
+      <c r="I170" s="12" t="s">
         <v>744</v>
       </c>
       <c r="J170" s="4">
@@ -22874,7 +22859,7 @@
       <c r="H193" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="I193" s="11" t="s">
+      <c r="I193" s="12" t="s">
         <v>837</v>
       </c>
       <c r="J193" s="4">

--- a/miniproject/template/Lectures/Lecture 7.xlsx
+++ b/miniproject/template/Lectures/Lecture 7.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11400"/>
+    <workbookView windowWidth="28800" windowHeight="11600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,19 +40,7 @@
     <t>Meaning</t>
   </si>
   <si>
-    <r>
-      <t>Meaning</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（中文）</t>
-    </r>
+    <t>Translation</t>
   </si>
   <si>
     <t>level_2</t>
@@ -4477,12 +4465,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4525,6 +4513,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -4533,8 +4528,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4549,14 +4612,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4571,116 +4658,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="方正书宋_GBK"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="37">
@@ -4716,73 +4697,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4800,7 +4715,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4812,7 +4793,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4824,13 +4859,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4843,54 +4872,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4960,6 +4941,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4971,6 +4991,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4993,206 +5024,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5568,7 +5549,7 @@
   <dimension ref="A1:Z221"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
